--- a/LRIMA-NezInformatique/Data/test_data.xlsx
+++ b/LRIMA-NezInformatique/Data/test_data.xlsx
@@ -41182,7 +41182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -48546,7 +48548,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>705</v>
       </c>
